--- a/sim_scoping_data_full.xlsx
+++ b/sim_scoping_data_full.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theaknowles/Documents/GitHub/sim_analysis/scoping_review/submission/tbls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theaknowles/Documents/GitHub/Speech-In-Masks_scoping_review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BC858E-F3F9-9549-ACB9-28CA098F1409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E63345-93E1-4E41-82F1-1D69DD2BDE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="37540" windowHeight="21280" xr2:uid="{9FC31C68-FDD9-F644-A918-481620D03B4B}"/>
+    <workbookView xWindow="1180" yWindow="1500" windowWidth="47820" windowHeight="25540" xr2:uid="{9FC31C68-FDD9-F644-A918-481620D03B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Acoustic-Perceptual-FOR-PUBLICA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1062,7 +1062,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1107,12 +1107,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
       </patternFill>
@@ -1130,7 +1124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1171,37 +1165,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1210,6 +1189,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1531,10 +1519,10 @@
   <dimension ref="A1:AJ965"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.19921875" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1693,7 +1681,7 @@
       <c r="AI2" s="10"/>
       <c r="AJ2" s="10"/>
     </row>
-    <row r="3" spans="1:36" ht="398" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" ht="225" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B3,FIND("","",B3) - 1),"" et al."",MID(B3,8,FIND("","",B3) + 1 - (7)),REGEXEXTRACT(A3,""[\d]+""))"),"Caniato et al., 2021")</f>
         <v>Caniato et al., 2021</v>
@@ -1776,7 +1764,7 @@
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
     </row>
-    <row r="4" spans="1:36" ht="117" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" ht="91" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B4,FIND("","",B4) - 1),"" et al.,"",MID(B4,8,FIND("","",B4) + 1 - (7)),REGEXEXTRACT(A4,""[\d]+""))"),"Abbasi et al., 2021")</f>
         <v>Abbasi et al., 2021</v>
@@ -1859,7 +1847,7 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:36" ht="255" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" ht="165" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>37</v>
       </c>
@@ -1941,7 +1929,7 @@
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
     </row>
-    <row r="6" spans="1:36" ht="195" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" ht="105" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B6,FIND("","",B6) - 1),"" et al.,"",REGEXEXTRACT(A6,""[\d]+""))"),"Atcherson et al.,2020")</f>
         <v>Atcherson et al.,2020</v>
@@ -2032,10 +2020,10 @@
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="22">
         <v>2021</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="22" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -2107,7 +2095,7 @@
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
     </row>
-    <row r="8" spans="1:36" ht="180" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" ht="90" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B8,FIND("","",B8) - 1),"" et al."",MID(B8,8,FIND("","",B8) + 1 - (7)),REGEXEXTRACT(A8,""[\d]+""))"),"Bandaru et al., 2020")</f>
         <v>Bandaru et al., 2020</v>
@@ -2190,7 +2178,7 @@
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
     </row>
-    <row r="9" spans="1:36" ht="285" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" ht="154" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B9,FIND("","",B9) - 1),"" et al., "",REGEXEXTRACT(A9,""[\d]+""))"),"Bottalico et al., 2020")</f>
         <v>Bottalico et al., 2020</v>
@@ -2246,13 +2234,13 @@
       <c r="R9" s="2">
         <v>0</v>
       </c>
-      <c r="S9" s="15">
+      <c r="S9" s="14">
         <v>0</v>
       </c>
-      <c r="T9" s="15">
+      <c r="T9" s="14">
         <v>0</v>
       </c>
-      <c r="U9" s="15" t="s">
+      <c r="U9" s="14" t="s">
         <v>65</v>
       </c>
       <c r="V9" s="2" t="s">
@@ -2273,7 +2261,7 @@
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
     </row>
-    <row r="10" spans="1:36" ht="255" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" ht="195" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B10,FIND("","",B10) - 1),"" et al., "",REGEXEXTRACT(A10,""[\d]+""))"),"Cavallaro et al., 2021")</f>
         <v>Cavallaro et al., 2021</v>
@@ -2356,7 +2344,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" ht="255" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" ht="135" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>70</v>
       </c>
@@ -2438,7 +2426,7 @@
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
     </row>
-    <row r="12" spans="1:36" ht="150" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" ht="75" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B12,FIND("","",B12) - 1),"" et al., "",MID(B12,8,FIND("","",B12) + 1 - (7)),REGEXEXTRACT(A12,""[\d]+""))"),"Corey et al., 2020")</f>
         <v>Corey et al., 2020</v>
@@ -2521,7 +2509,7 @@
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
     </row>
-    <row r="13" spans="1:36" ht="328" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" ht="255" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B13,FIND("","",B13) - 1),"" et al.,"",MID(B13,8,FIND("","",B13) + 1 - (7)),REGEXEXTRACT(A13,""[\d]+""))"),"Fecher et al., 2011")</f>
         <v>Fecher et al., 2011</v>
@@ -2604,7 +2592,7 @@
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
     </row>
-    <row r="14" spans="1:36" ht="195" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" ht="135" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B14,FIND("","",B14) - 1),"" et al.,"",MID(B14,8,FIND("","",B14) + 1 - (7)),REGEXEXTRACT(A14,""[\d]+""))"),"Fecher et al., 2011")</f>
         <v>Fecher et al., 2011</v>
@@ -2687,33 +2675,33 @@
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
     </row>
-    <row r="15" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="str">
+    <row r="15" spans="1:36" ht="398" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B15,FIND("","",B15) - 1),"" et al.,"",MID(B15,8,FIND("","",B15) + 1 - (7)),REGEXEXTRACT(A15,""[\d]+""))"),"Fecher et al., 2013")</f>
         <v>Fecher et al., 2013</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>2013</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -2731,7 +2719,7 @@
       <c r="N15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="17" t="s">
+      <c r="O15" s="16" t="s">
         <v>94</v>
       </c>
       <c r="P15" s="13">
@@ -2740,7 +2728,7 @@
       <c r="Q15" s="13">
         <v>1</v>
       </c>
-      <c r="R15" s="17">
+      <c r="R15" s="16">
         <v>0</v>
       </c>
       <c r="S15" s="2">
@@ -2755,22 +2743,22 @@
       <c r="V15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-    </row>
-    <row r="16" spans="1:36" ht="105" x14ac:dyDescent="0.2">
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16"/>
+    </row>
+    <row r="16" spans="1:36" ht="60" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B16,FIND("","",B16) - 1),"" et al., "",REGEXEXTRACT(A16,""[\d]+""))"),"Fiorella et al., 2021")</f>
         <v>Fiorella et al., 2021</v>
@@ -2793,10 +2781,10 @@
       <c r="G16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="23" t="s">
         <v>99</v>
       </c>
       <c r="J16" s="2">
@@ -2853,7 +2841,7 @@
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
     </row>
-    <row r="17" spans="1:36" ht="180" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" ht="75" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B17,FIND("","",B17) - 1),"" et al.,"",REGEXEXTRACT(A17,""[\d]+""))"),"Giovanelli et al.,2021")</f>
         <v>Giovanelli et al.,2021</v>
@@ -2876,10 +2864,10 @@
       <c r="G17" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="22" t="s">
         <v>29</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -2936,7 +2924,7 @@
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
     </row>
-    <row r="18" spans="1:36" ht="120" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" ht="90" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B18,FIND("","",B18) - 1),"" et al.,"",REGEXEXTRACT(A18,""[\d]+""))"),"Giuliani et al.,2020")</f>
         <v>Giuliani et al.,2020</v>
@@ -2959,10 +2947,10 @@
       <c r="G18" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="22" t="s">
         <v>108</v>
       </c>
       <c r="J18" s="2">
@@ -3019,7 +3007,7 @@
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
     </row>
-    <row r="19" spans="1:36" ht="260" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" ht="104" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B19,FIND("","",B19) - 1),"" et al."",MID(B19,8,FIND("","",B19) + 1 - (7)),REGEXEXTRACT(A19,""[\d]+""))"),"Hampton et al., 2020")</f>
         <v>Hampton et al., 2020</v>
@@ -3042,10 +3030,10 @@
       <c r="G19" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="22" t="s">
         <v>29</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -3102,7 +3090,7 @@
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
     </row>
-    <row r="20" spans="1:36" ht="78" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>113</v>
       </c>
@@ -3124,10 +3112,10 @@
       <c r="G20" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="22" t="s">
         <v>29</v>
       </c>
       <c r="J20" s="2">
@@ -3184,7 +3172,7 @@
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
     </row>
-    <row r="21" spans="1:36" ht="332" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" ht="182" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B21,FIND("","",B21) - 1),"" et al.,"",MID(B21,8,FIND("","",B21) + 1 - (7)),REGEXEXTRACT(A21,""[\d]+""))"),"Llamas et al., 2009")</f>
         <v>Llamas et al., 2009</v>
@@ -3207,10 +3195,10 @@
       <c r="G21" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="22" t="s">
         <v>29</v>
       </c>
       <c r="J21" s="2">
@@ -3267,7 +3255,7 @@
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
     </row>
-    <row r="22" spans="1:36" ht="182" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" ht="140" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B22,FIND("","",B22) - 1),"" et al., "",MID(B22,8,FIND("","",B22) + 1 - (7)),REGEXEXTRACT(A22,""[\d]+""))"),"Magee et al., 2020")</f>
         <v>Magee et al., 2020</v>
@@ -3290,25 +3278,25 @@
       <c r="G22" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="14">
         <v>1</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="14">
         <v>1</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="14">
         <v>1</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="14">
         <v>0</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="14">
         <v>1</v>
       </c>
       <c r="O22" s="12" t="s">
@@ -3350,7 +3338,7 @@
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
     </row>
-    <row r="23" spans="1:36" ht="300" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" ht="210" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B23,FIND("","",B23) - 1),"" et al., "",MID(B23,8,FIND("","",B23) + 1 - (7)),REGEXEXTRACT(A23,""[\d]+""))"),"Maryn et al., 2021")</f>
         <v>Maryn et al., 2021</v>
@@ -3373,25 +3361,25 @@
       <c r="G23" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="16">
         <v>1</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="16">
         <v>1</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="16">
         <v>1</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="16">
         <v>1</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N23" s="16">
         <v>0</v>
       </c>
       <c r="O23" s="2" t="s">
@@ -3412,7 +3400,7 @@
       <c r="T23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U23" s="22" t="s">
+      <c r="U23" s="17" t="s">
         <v>138</v>
       </c>
       <c r="V23" s="2" t="s">
@@ -3456,10 +3444,10 @@
       <c r="G24" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="22" t="s">
         <v>29</v>
       </c>
       <c r="J24" s="2">
@@ -3539,10 +3527,10 @@
       <c r="G25" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="22" t="s">
         <v>29</v>
       </c>
       <c r="J25" s="2">
@@ -3597,7 +3585,7 @@
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
     </row>
-    <row r="26" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" ht="398" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B26,FIND("","",B26) - 1),"" et al.,"",MID(B26,8,FIND("","",B26) + 1 - (7)),REGEXEXTRACT(A26,""[\d]+""))"),"Nguyen et al., 2021")</f>
         <v>Nguyen et al., 2021</v>
@@ -3618,10 +3606,10 @@
       <c r="G26" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="22" t="s">
         <v>154</v>
       </c>
       <c r="J26" s="2">
@@ -3678,33 +3666,33 @@
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
     </row>
-    <row r="27" spans="1:36" ht="91" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="str">
+    <row r="27" spans="1:36" ht="60" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B27,FIND("","",B27) - 1),"" et al.,"",MID(B27,8,FIND("","",B27) + 1 - (7)),REGEXEXTRACT(A27,""[\d]+""))"),"Nguyen et al., 2021")</f>
         <v>Nguyen et al., 2021</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="19">
         <v>2021</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="22" t="s">
         <v>29</v>
       </c>
       <c r="J27" s="2" t="s">
@@ -3722,7 +3710,7 @@
       <c r="N27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O27" s="24" t="s">
+      <c r="O27" s="19" t="s">
         <v>159</v>
       </c>
       <c r="P27" s="13">
@@ -3731,63 +3719,63 @@
       <c r="Q27" s="13">
         <v>0</v>
       </c>
-      <c r="R27" s="17">
+      <c r="R27" s="16">
         <v>0</v>
       </c>
-      <c r="S27" s="17">
+      <c r="S27" s="16">
         <v>0</v>
       </c>
-      <c r="T27" s="17">
+      <c r="T27" s="16">
         <v>0</v>
       </c>
-      <c r="U27" s="17" t="s">
+      <c r="U27" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="V27" s="25" t="s">
+      <c r="V27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="17"/>
-    </row>
-    <row r="28" spans="1:36" ht="165" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="str">
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="16"/>
+      <c r="AJ27" s="16"/>
+    </row>
+    <row r="28" spans="1:36" ht="120" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B28,FIND("","",B28) - 1),"" et al.,"",REGEXEXTRACT(A28,""[\d]+""))"),"Palmiero et al.,2016")</f>
         <v>Palmiero et al.,2016</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="16">
         <v>2016</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I28" s="22" t="s">
         <v>164</v>
       </c>
       <c r="J28" s="2">
@@ -3805,7 +3793,7 @@
       <c r="N28" s="2">
         <v>1</v>
       </c>
-      <c r="O28" s="24" t="s">
+      <c r="O28" s="19" t="s">
         <v>29</v>
       </c>
       <c r="P28" s="2" t="s">
@@ -3823,28 +3811,28 @@
       <c r="T28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U28" s="17" t="s">
+      <c r="U28" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="V28" s="17" t="s">
+      <c r="V28" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
-    </row>
-    <row r="29" spans="1:36" ht="314" x14ac:dyDescent="0.2">
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="16"/>
+      <c r="AG28" s="16"/>
+      <c r="AH28" s="16"/>
+      <c r="AI28" s="16"/>
+      <c r="AJ28" s="16"/>
+    </row>
+    <row r="29" spans="1:36" ht="255" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B29,FIND("","",B29) - 1),"" et al.,"",REGEXEXTRACT(A29,""[\d]+""))"),"Pörschmann et al.,2020")</f>
         <v>Pörschmann et al.,2020</v>
@@ -3906,10 +3894,10 @@
       <c r="T29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U29" s="17" t="s">
+      <c r="U29" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="V29" s="17" t="s">
+      <c r="V29" s="16" t="s">
         <v>29</v>
       </c>
       <c r="W29" s="2"/>
@@ -3927,7 +3915,7 @@
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
     </row>
-    <row r="30" spans="1:36" ht="300" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" ht="135" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B30,FIND("","",B30) - 1),"" et al.,"",REGEXEXTRACT(A30,""[\d]+""))"),"Randazzo et al.,2020")</f>
         <v>Randazzo et al.,2020</v>
@@ -3983,13 +3971,13 @@
       <c r="R30" s="2">
         <v>0</v>
       </c>
-      <c r="S30" s="17">
+      <c r="S30" s="16">
         <v>0</v>
       </c>
-      <c r="T30" s="17">
+      <c r="T30" s="16">
         <v>0</v>
       </c>
-      <c r="U30" s="17" t="s">
+      <c r="U30" s="16" t="s">
         <v>29</v>
       </c>
       <c r="V30" s="2"/>
@@ -4009,32 +3997,32 @@
       <c r="AJ30" s="2"/>
     </row>
     <row r="31" spans="1:36" ht="143" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="str">
+      <c r="A31" s="15" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B31,FIND("","",B31) - 1),"" et al.,"",REGEXEXTRACT(A31,""[\d]+""))"),"Radonovich et al.,2010")</f>
         <v>Radonovich et al.,2010</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="16">
         <v>2010</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I31" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J31" s="2" t="s">
@@ -4052,7 +4040,7 @@
       <c r="N31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O31" s="24" t="s">
+      <c r="O31" s="19" t="s">
         <v>250</v>
       </c>
       <c r="P31" s="13">
@@ -4061,35 +4049,35 @@
       <c r="Q31" s="13">
         <v>0</v>
       </c>
-      <c r="R31" s="17">
+      <c r="R31" s="16">
         <v>0</v>
       </c>
-      <c r="S31" s="17">
+      <c r="S31" s="16">
         <v>0</v>
       </c>
-      <c r="T31" s="17">
+      <c r="T31" s="16">
         <v>0</v>
       </c>
-      <c r="U31" s="17" t="s">
+      <c r="U31" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="V31" s="17" t="s">
+      <c r="V31" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="17"/>
-      <c r="AG31" s="17"/>
-      <c r="AH31" s="17"/>
-      <c r="AI31" s="17"/>
-      <c r="AJ31" s="17"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="16"/>
+      <c r="AI31" s="16"/>
+      <c r="AJ31" s="16"/>
     </row>
     <row r="32" spans="1:36" ht="210" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="str">
@@ -4147,13 +4135,13 @@
       <c r="R32" s="2">
         <v>0</v>
       </c>
-      <c r="S32" s="17">
+      <c r="S32" s="16">
         <v>1</v>
       </c>
-      <c r="T32" s="17">
+      <c r="T32" s="16">
         <v>1</v>
       </c>
-      <c r="U32" s="17" t="s">
+      <c r="U32" s="16" t="s">
         <v>29</v>
       </c>
       <c r="V32" s="2" t="s">
@@ -4175,50 +4163,50 @@
       <c r="AJ32" s="2"/>
     </row>
     <row r="33" spans="1:36" ht="165" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="str">
+      <c r="A33" s="18" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B33,FIND("","",B33) - 1),"" et al., "",MID(B33,8,FIND("","",B33) + 1 - (7)),REGEXEXTRACT(A33,""[\d]+""))"),"Saeidi et al.,  2016")</f>
         <v>Saeidi et al.,  2016</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="16">
         <v>2016</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="I33" s="17" t="s">
+      <c r="I33" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="16">
         <v>1</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="16">
         <v>0</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="16">
         <v>0</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M33" s="16">
         <v>0</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="16">
         <v>0</v>
       </c>
-      <c r="O33" s="17" t="s">
+      <c r="O33" s="16" t="s">
         <v>191</v>
       </c>
       <c r="P33" s="13">
@@ -4227,36 +4215,36 @@
       <c r="Q33" s="13">
         <v>0</v>
       </c>
-      <c r="R33" s="17">
+      <c r="R33" s="16">
         <v>0</v>
       </c>
-      <c r="S33" s="17">
+      <c r="S33" s="16">
         <v>0</v>
       </c>
-      <c r="T33" s="17">
+      <c r="T33" s="16">
         <v>0</v>
       </c>
-      <c r="U33" s="17" t="s">
+      <c r="U33" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="17"/>
-      <c r="AI33" s="17"/>
-      <c r="AJ33" s="17"/>
-    </row>
-    <row r="34" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A34" s="26" t="str">
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="16"/>
+    </row>
+    <row r="34" spans="1:36" ht="404" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B35,FIND("","",B35) - 1),"" et al."",MID(B35,8,FIND("","",B35) + 1 - (7)),REGEXEXTRACT(A35,""[\d]+""))"),"Saigusa et al., 2017")</f>
         <v>Saigusa et al., 2017</v>
       </c>
@@ -4338,8 +4326,8 @@
       <c r="AI34" s="2"/>
       <c r="AJ34" s="2"/>
     </row>
-    <row r="35" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A35" s="26" t="str">
+    <row r="35" spans="1:36" ht="342" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B36,FIND("","",B36) - 1),"" et al."",REGEXEXTRACT(A36,""[\d]+""))"),"Thibodeau et al.2021")</f>
         <v>Thibodeau et al.2021</v>
       </c>
@@ -4421,8 +4409,8 @@
       <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
     </row>
-    <row r="36" spans="1:36" ht="260" x14ac:dyDescent="0.2">
-      <c r="A36" s="26" t="str">
+    <row r="36" spans="1:36" ht="104" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B37,FIND("","",B37) - 1),"" et al."",MID(B37,8,FIND("","",B37) + 1 - (7)),REGEXEXTRACT(A37,""[\d]+""))"),"Toscano et al., 2021")</f>
         <v>Toscano et al., 2021</v>
       </c>
@@ -4504,8 +4492,8 @@
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
     </row>
-    <row r="37" spans="1:36" ht="52" x14ac:dyDescent="0.2">
-      <c r="A37" s="26" t="str">
+    <row r="37" spans="1:36" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B38,FIND("","",B38) - 1),"" et al.,"",MID(B38,8,FIND("","",B38) + 1 - (7)),REGEXEXTRACT(A38,""[\d]+""))"),"Truong et al., 2021")</f>
         <v>Truong et al., 2021</v>
       </c>
@@ -4587,8 +4575,8 @@
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
     </row>
-    <row r="38" spans="1:36" ht="105" x14ac:dyDescent="0.2">
-      <c r="A38" s="26" t="s">
+    <row r="38" spans="1:36" ht="90" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
         <v>215</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -4752,8 +4740,8 @@
       <c r="AI39" s="2"/>
       <c r="AJ39" s="2"/>
     </row>
-    <row r="40" spans="1:36" ht="70" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="str">
+    <row r="40" spans="1:36" ht="45" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(LEFT(B41,FIND("","",B41) - 1),"" et al., "",MID(B41,8,FIND("","",B41) + 1 - (7)),REGEXEXTRACT(A41,""[\d]+""))"),"Wolfe et al., 2020")</f>
         <v>Wolfe et al., 2020</v>
       </c>
@@ -4775,7 +4763,7 @@
       <c r="G40" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="14" t="s">
         <v>233</v>
       </c>
       <c r="I40" s="2" t="s">
@@ -4835,7 +4823,7 @@
       <c r="AI40" s="2"/>
       <c r="AJ40" s="2"/>
     </row>
-    <row r="41" spans="1:36" ht="60" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>235</v>
       </c>

--- a/sim_scoping_data_full.xlsx
+++ b/sim_scoping_data_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theaknowles/Documents/GitHub/Speech-In-Masks_scoping_review/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thea/Library/CloudStorage/GoogleDrive-thea@msu.edu/.shortcut-targets-by-id/13YgdixLu6IHXjMJ0mgYyj-0HKPxjSRhk/CASALab/1_Projects/SiM/sim_scoping_review_files/revision1_2022-12-01/submission_2022-03-29/tbls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E63345-93E1-4E41-82F1-1D69DD2BDE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68640127-EC9C-B04B-90AA-16E27AAE0348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="47820" windowHeight="25540" xr2:uid="{9FC31C68-FDD9-F644-A918-481620D03B4B}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="37540" windowHeight="20180" xr2:uid="{9FC31C68-FDD9-F644-A918-481620D03B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Acoustic-Perceptual-FOR-PUBLICA" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -716,14 +717,6 @@
 N95: peak attenuation of ~10 dB at 800 Hz and 2 kHz - 3 kHz</t>
   </si>
   <si>
-    <t>Greater accuracy for no mask compared to all 3 mask conditions, with greatest detriment from N95.
-Surgical and cloth mask &gt; N95, but did not differ from each other
-No mask: 79.1%; surgical: 69.8%; cloth: 70.8%, N95: 63.2%
-No interaction between condition, speaker
-Non-responses (rather than phonetic approximations): greater for N95 compared to surgical, cloth (which did not differ from each other): 
-surgical: 36.9%, cloth: 37.7%, n95: 44.1%</t>
-  </si>
-  <si>
     <t>n= 8; 5 half-mask FFP of different styles (2 overlaid with surgical mask), 1 surgical mask, 1 half-mask elastomeric, 1 hooded powered air purifying respirator</t>
   </si>
   <si>
@@ -996,12 +989,20 @@
 Lowest intelligibility for elastomeric respirator compared to the average of the other 7 (72% vs 85%)
 Cup-shaped N95 w/ exhalation valve + surgical mask overlaid had lower intelligibility than: 1) n95 without exhalation valve and without overlaid SM, 2) no device. No other significant differences across masks of interest in this review. </t>
   </si>
+  <si>
+    <t>Greater accuracy for no mask compared to all 3 mask conditions, with greatest detriment from N95.
+Surgical and cloth mask &lt; N95, but did not differ from each other
+No mask: 79.1%; surgical: 69.8%; cloth: 70.8%, N95: 63.2%
+No interaction between condition, speaker
+Non-responses (rather than phonetic approximations): greater for N95 compared to surgical, cloth (which did not differ from each other): 
+surgical: 36.9%, cloth: 37.7%, n95: 44.1%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1060,6 +1061,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1124,7 +1132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1185,6 +1193,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1522,7 +1533,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.19921875" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -2020,10 +2031,10 @@
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -2781,10 +2792,10 @@
       <c r="G16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="24" t="s">
         <v>99</v>
       </c>
       <c r="J16" s="2">
@@ -2864,10 +2875,10 @@
       <c r="G17" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="23" t="s">
         <v>29</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -2947,10 +2958,10 @@
       <c r="G18" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="23" t="s">
         <v>108</v>
       </c>
       <c r="J18" s="2">
@@ -3030,10 +3041,10 @@
       <c r="G19" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="23" t="s">
         <v>29</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -3112,10 +3123,10 @@
       <c r="G20" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="23" t="s">
         <v>29</v>
       </c>
       <c r="J20" s="2">
@@ -3195,10 +3206,10 @@
       <c r="G21" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="23" t="s">
         <v>29</v>
       </c>
       <c r="J21" s="2">
@@ -3278,10 +3289,10 @@
       <c r="G22" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="26" t="s">
         <v>131</v>
       </c>
       <c r="J22" s="14">
@@ -3361,10 +3372,10 @@
       <c r="G23" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="16" t="s">
         <v>137</v>
       </c>
       <c r="J23" s="16">
@@ -3444,10 +3455,10 @@
       <c r="G24" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J24" s="2">
@@ -3487,7 +3498,7 @@
         <v>29</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -3527,10 +3538,10 @@
       <c r="G25" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J25" s="2">
@@ -3568,7 +3579,7 @@
       </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -3606,10 +3617,10 @@
       <c r="G26" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="23" t="s">
         <v>154</v>
       </c>
       <c r="J26" s="2">
@@ -3689,10 +3700,10 @@
       <c r="G27" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J27" s="2" t="s">
@@ -3772,10 +3783,10 @@
       <c r="G28" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="16" t="s">
         <v>164</v>
       </c>
       <c r="J28" s="2">
@@ -3959,8 +3970,8 @@
       <c r="N30" s="2">
         <v>0</v>
       </c>
-      <c r="O30" s="2" t="s">
-        <v>175</v>
+      <c r="O30" s="22" t="s">
+        <v>250</v>
       </c>
       <c r="P30" s="13">
         <v>0</v>
@@ -4008,16 +4019,16 @@
         <v>2010</v>
       </c>
       <c r="D31" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="F31" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="G31" s="16" t="s">
         <v>178</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>179</v>
       </c>
       <c r="H31" s="16" t="s">
         <v>29</v>
@@ -4041,7 +4052,7 @@
         <v>29</v>
       </c>
       <c r="O31" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P31" s="13">
         <v>0</v>
@@ -4062,7 +4073,7 @@
         <v>29</v>
       </c>
       <c r="V31" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="W31" s="16"/>
       <c r="X31" s="16"/>
@@ -4091,16 +4102,16 @@
         <v>2020</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>29</v>
@@ -4124,7 +4135,7 @@
         <v>29</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P32" s="13">
         <v>0</v>
@@ -4145,7 +4156,7 @@
         <v>29</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -4168,25 +4179,25 @@
         <v>Saeidi et al.,  2016</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C33" s="16">
         <v>2016</v>
       </c>
       <c r="D33" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>187</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>188</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>29</v>
       </c>
       <c r="G33" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33" s="16" t="s">
         <v>189</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>190</v>
       </c>
       <c r="I33" s="16" t="s">
         <v>29</v>
@@ -4207,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P33" s="13">
         <v>0</v>
@@ -4255,22 +4266,22 @@
         <v>2017</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G34" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="I34" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="J34" s="12">
         <v>0</v>
@@ -4338,19 +4349,19 @@
         <v>2021</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>201</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>29</v>
@@ -4371,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P35" s="13">
         <v>1</v>
@@ -4392,7 +4403,7 @@
         <v>29</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -4421,19 +4432,19 @@
         <v>2021</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="12" t="s">
         <v>206</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>207</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>29</v>
@@ -4454,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P36" s="13">
         <v>0</v>
@@ -4504,16 +4515,16 @@
         <v>2021</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>212</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>29</v>
@@ -4537,7 +4548,7 @@
         <v>29</v>
       </c>
       <c r="O37" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P37" s="13">
         <v>1</v>
@@ -4558,7 +4569,7 @@
         <v>29</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
@@ -4577,7 +4588,7 @@
     </row>
     <row r="38" spans="1:36" ht="90" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>38</v>
@@ -4586,19 +4597,19 @@
         <v>2021</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="12" t="s">
         <v>219</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>220</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>29</v>
@@ -4619,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P38" s="13">
         <v>0</v>
@@ -4640,7 +4651,7 @@
         <v>29</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
@@ -4669,16 +4680,16 @@
         <v>2013</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>29</v>
@@ -4702,7 +4713,7 @@
         <v>29</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P39" s="13">
         <v>0</v>
@@ -4720,10 +4731,10 @@
         <v>0</v>
       </c>
       <c r="U39" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="V39" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="V39" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
@@ -4752,19 +4763,19 @@
         <v>2020</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H40" s="14" t="s">
         <v>232</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>233</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>29</v>
@@ -4806,7 +4817,7 @@
         <v>29</v>
       </c>
       <c r="V40" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
@@ -4825,7 +4836,7 @@
     </row>
     <row r="41" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>26</v>
@@ -4834,19 +4845,19 @@
         <v>2020</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G41" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>29</v>
@@ -4907,7 +4918,7 @@
     </row>
     <row r="42" spans="1:36" ht="150" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>53</v>
@@ -4916,16 +4927,16 @@
         <v>2011</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>29</v>
@@ -4949,7 +4960,7 @@
         <v>29</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P42" s="13">
         <v>0</v>
@@ -4967,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V42" s="2" t="s">
         <v>29</v>
